--- a/data/trans_orig/POLIPATOLOGÍA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en C.Valenciana</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en C.Valenciana (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/POLIPATOLOGÍA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21165</t>
+          <t>18898</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17486</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24591</t>
+          <t>21912</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38913</t>
+          <t>37551</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34493</t>
+          <t>33516</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43810</t>
+          <t>42118</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>60078</t>
+          <t>56449</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>54485</t>
+          <t>51164</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>65788</t>
+          <t>61770</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>30,34%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66678</t>
+          <t>63318</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63252</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70357</t>
+          <t>66352</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>80,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88731</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>83834</t>
+          <t>79268</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93151</t>
+          <t>87870</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>65,3%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>72,98%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>155410</t>
+          <t>147154</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>149700</t>
+          <t>141833</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>161003</t>
+          <t>152439</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>74,87%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84111</t>
+          <t>76973</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77052</t>
+          <t>70415</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92099</t>
+          <t>83974</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87989</t>
+          <t>86067</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>81047</t>
+          <t>79389</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95888</t>
+          <t>93543</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>172100</t>
+          <t>163040</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>160552</t>
+          <t>153836</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>182011</t>
+          <t>173164</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>367854</t>
+          <t>383865</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>359866</t>
+          <t>376864</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>374913</t>
+          <t>390423</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>343668</t>
+          <t>358910</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>335769</t>
+          <t>351434</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>350610</t>
+          <t>365588</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>82,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>711522</t>
+          <t>742775</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>701611</t>
+          <t>732651</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>723070</t>
+          <t>751979</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>83,02%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17520</t>
+          <t>18079</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14176</t>
+          <t>14621</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21272</t>
+          <t>21831</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24244</t>
+          <t>26480</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20553</t>
+          <t>21766</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28886</t>
+          <t>30441</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>41764</t>
+          <t>44559</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36605</t>
+          <t>39312</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>47488</t>
+          <t>50321</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>133499</t>
+          <t>157285</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>129747</t>
+          <t>153533</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>136843</t>
+          <t>160743</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>170436</t>
+          <t>202053</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>165794</t>
+          <t>198092</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>174127</t>
+          <t>206767</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>303935</t>
+          <t>359338</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>298211</t>
+          <t>353576</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>309094</t>
+          <t>364585</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>90,27%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>122796</t>
+          <t>113950</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>114190</t>
+          <t>105194</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>132575</t>
+          <t>122520</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>151146</t>
+          <t>150098</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>141386</t>
+          <t>140218</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>160875</t>
+          <t>160214</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>273942</t>
+          <t>264047</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>260737</t>
+          <t>251501</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>288647</t>
+          <t>276611</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>18,28%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>568031</t>
+          <t>604469</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>558252</t>
+          <t>595899</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>576637</t>
+          <t>613225</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>602835</t>
+          <t>644798</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>593106</t>
+          <t>634682</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>612595</t>
+          <t>654678</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1170867</t>
+          <t>1249268</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1156162</t>
+          <t>1236704</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1184072</t>
+          <t>1261814</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>83,38%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46658</t>
+          <t>46313</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69806</t>
+          <t>68604</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>148923</t>
+          <t>148654</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>182405</t>
+          <t>179975</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>201067</t>
+          <t>201782</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>241447</t>
+          <t>242737</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>38,87%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>158491</t>
+          <t>159693</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>181639</t>
+          <t>181984</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>69,95%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,56%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>213792</t>
+          <t>216222</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>247274</t>
+          <t>247543</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>54,57%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>383047</t>
+          <t>381757</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>423427</t>
+          <t>422712</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>67,69%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>69816</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>158110</t>
+          <t>156292</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>157584</t>
+          <t>158896</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>697183</t>
+          <t>762088</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>268997</t>
+          <t>263862</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1046871</t>
+          <t>1063373</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>38,05%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1250564</t>
+          <t>1252382</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1335828</t>
+          <t>1338858</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>688628</t>
+          <t>623723</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1228227</t>
+          <t>1226915</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1747614</t>
+          <t>1731112</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2525488</t>
+          <t>2530623</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>90,56%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32644</t>
+          <t>32947</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55329</t>
+          <t>55434</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45271</t>
+          <t>47287</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>67530</t>
+          <t>69632</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>84446</t>
+          <t>85053</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>117973</t>
+          <t>116080</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>404472</t>
+          <t>404367</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>427157</t>
+          <t>426854</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>375844</t>
+          <t>373742</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>398103</t>
+          <t>396087</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>785202</t>
+          <t>787095</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>818729</t>
+          <t>818122</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>90,58%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>152377</t>
+          <t>150955</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>264085</t>
+          <t>264112</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>386260</t>
+          <t>388425</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1037205</t>
+          <t>1035310</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>46,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>588059</t>
+          <t>588829</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1505083</t>
+          <t>1452443</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>33,6%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1832687</t>
+          <t>1832660</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1944395</t>
+          <t>1945817</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1188177</t>
+          <t>1190072</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1839122</t>
+          <t>1836957</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>53,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2817071</t>
+          <t>2869711</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3734095</t>
+          <t>3733325</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>65,18%</t>
+          <t>66,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>86,38%</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39935</t>
+          <t>39400</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60983</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>85578</t>
+          <t>85983</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>103160</t>
+          <t>102882</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>132955</t>
+          <t>131292</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>160060</t>
+          <t>159142</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>72,66%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37572</t>
+          <t>36543</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58620</t>
+          <t>59155</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17297</t>
+          <t>17575</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34879</t>
+          <t>34474</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>58951</t>
+          <t>59869</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>86056</t>
+          <t>87719</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>40,05%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>103278</t>
+          <t>102581</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>127751</t>
+          <t>128113</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>170001</t>
+          <t>170964</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>196913</t>
+          <t>198112</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>281408</t>
+          <t>282344</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>318193</t>
+          <t>319031</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>44,82%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>229511</t>
+          <t>229149</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>253984</t>
+          <t>254681</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>157676</t>
+          <t>156477</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>184588</t>
+          <t>183625</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>52,06%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>393659</t>
+          <t>392821</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>430444</t>
+          <t>429508</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>60,47%</t>
+          <t>60,34%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55954</t>
+          <t>55548</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72722</t>
+          <t>73193</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>102158</t>
+          <t>101425</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>126037</t>
+          <t>123951</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>161941</t>
+          <t>163576</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>193044</t>
+          <t>192105</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>37,84%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>151888</t>
+          <t>151417</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>168656</t>
+          <t>169062</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>157094</t>
+          <t>159180</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>180973</t>
+          <t>181706</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>63,92%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>314697</t>
+          <t>315636</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>345800</t>
+          <t>344165</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>68,11%</t>
+          <t>67,78%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>211862</t>
+          <t>211483</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>250128</t>
+          <t>250013</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>372643</t>
+          <t>372813</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>412674</t>
+          <t>414259</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>595741</t>
+          <t>595493</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>651023</t>
+          <t>651844</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>45,31%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>430300</t>
+          <t>430415</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>468566</t>
+          <t>468945</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,24%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>345503</t>
+          <t>343918</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>385534</t>
+          <t>385364</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>787582</t>
+          <t>786761</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>842864</t>
+          <t>843112</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>54,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>58,61%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/POLIPATOLOGÍA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18898</t>
+          <t>63345</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15864</t>
+          <t>50931</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21912</t>
+          <t>74608</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37551</t>
+          <t>175120</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33516</t>
+          <t>160055</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42118</t>
+          <t>191908</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>382</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>56449</t>
+          <t>238465</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>51164</t>
+          <t>218450</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>61770</t>
+          <t>259316</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>37,63%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63318</t>
+          <t>192047</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>180784</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66352</t>
+          <t>204461</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,01%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,35%</t>
+          <t>70,79%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,7%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>401</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83835</t>
+          <t>258676</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79268</t>
+          <t>241888</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>87870</t>
+          <t>273741</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>59,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>605</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>147154</t>
+          <t>450724</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>141833</t>
+          <t>429873</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>152439</t>
+          <t>470739</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>72,28%</t>
+          <t>65,4%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>68,3%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>987</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76973</t>
+          <t>135007</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70415</t>
+          <t>115402</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83974</t>
+          <t>158799</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>250</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86067</t>
+          <t>160003</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>79389</t>
+          <t>141031</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93543</t>
+          <t>179825</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>405</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>163040</t>
+          <t>295009</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>153836</t>
+          <t>268192</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>173164</t>
+          <t>327266</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>955</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>383865</t>
+          <t>1151812</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>376864</t>
+          <t>1128020</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>390423</t>
+          <t>1171417</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>358910</t>
+          <t>1110738</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>351434</t>
+          <t>1090916</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>365588</t>
+          <t>1129710</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,66%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>742775</t>
+          <t>2262550</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>732651</t>
+          <t>2230293</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>751979</t>
+          <t>2289367</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>89,51%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2557559</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2557559</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2557559</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18079</t>
+          <t>46337</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14621</t>
+          <t>35614</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21831</t>
+          <t>59737</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26480</t>
+          <t>65379</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21766</t>
+          <t>54158</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30441</t>
+          <t>79744</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>158</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>44559</t>
+          <t>111717</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>39312</t>
+          <t>95677</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>50321</t>
+          <t>131449</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>157285</t>
+          <t>463542</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153533</t>
+          <t>450142</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>160743</t>
+          <t>474265</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>202053</t>
+          <t>430527</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>198092</t>
+          <t>416162</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>206767</t>
+          <t>441748</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>995</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>359338</t>
+          <t>894069</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>353576</t>
+          <t>874337</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>364585</t>
+          <t>910109</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,49%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>113950</t>
+          <t>244689</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>105194</t>
+          <t>219654</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>122520</t>
+          <t>272080</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>646</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>150098</t>
+          <t>400502</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>140218</t>
+          <t>371209</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>160214</t>
+          <t>430756</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>945</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>264047</t>
+          <t>645191</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>251501</t>
+          <t>606091</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>276611</t>
+          <t>686801</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>16,15%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3358</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>604469</t>
+          <t>1807401</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>595899</t>
+          <t>1780010</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>613225</t>
+          <t>1832436</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>644798</t>
+          <t>1799941</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>634682</t>
+          <t>1769687</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>654678</t>
+          <t>1829234</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>83,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1249268</t>
+          <t>3607342</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1236704</t>
+          <t>3565732</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1261814</t>
+          <t>3646442</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>85,75%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2052090</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2052090</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2052090</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2200443</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2200443</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2200443</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4252533</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4252533</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4252533</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57750</t>
+          <t>50789</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46313</t>
+          <t>39400</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68604</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>163484</t>
+          <t>95511</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>148654</t>
+          <t>85983</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>179975</t>
+          <t>102882</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>343</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>221234</t>
+          <t>146299</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>201782</t>
+          <t>131292</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>242737</t>
+          <t>159142</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>72,66%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>170547</t>
+          <t>47766</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>159693</t>
+          <t>36543</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>181984</t>
+          <t>59155</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>232713</t>
+          <t>24946</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>216222</t>
+          <t>17575</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>247543</t>
+          <t>34474</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>54,57%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>403260</t>
+          <t>72712</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>381757</t>
+          <t>59869</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>422712</t>
+          <t>87719</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>40,05%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>122838</t>
+          <t>115114</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69816</t>
+          <t>102581</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>156292</t>
+          <t>128113</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>421</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>347725</t>
+          <t>184451</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>158896</t>
+          <t>170964</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>762088</t>
+          <t>198112</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>686</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>470563</t>
+          <t>299565</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>263862</t>
+          <t>282344</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1063373</t>
+          <t>319031</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>44,82%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1285836</t>
+          <t>242148</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1252382</t>
+          <t>229149</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1338858</t>
+          <t>254681</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>67,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1038086</t>
+          <t>170138</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>623723</t>
+          <t>156477</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1226915</t>
+          <t>183625</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>919</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2323922</t>
+          <t>412287</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1731112</t>
+          <t>392821</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2530623</t>
+          <t>429508</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>60,34%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2794485</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2794485</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2794485</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42765</t>
+          <t>63707</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32947</t>
+          <t>55548</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55434</t>
+          <t>73193</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>305</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>56606</t>
+          <t>113574</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>47287</t>
+          <t>101425</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>69632</t>
+          <t>123951</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>494</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>99371</t>
+          <t>177281</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>85053</t>
+          <t>163576</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>116080</t>
+          <t>192105</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>37,84%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>454</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>417036</t>
+          <t>160903</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>404367</t>
+          <t>151417</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>426854</t>
+          <t>169062</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>71,64%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>386768</t>
+          <t>169557</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>373742</t>
+          <t>159180</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>396087</t>
+          <t>181706</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>911</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>803804</t>
+          <t>330460</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>787095</t>
+          <t>315636</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>818122</t>
+          <t>344165</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>67,78%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>223354</t>
+          <t>229610</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>150955</t>
+          <t>211483</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>264112</t>
+          <t>250013</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>961</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>567815</t>
+          <t>393536</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>388425</t>
+          <t>372813</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1035310</t>
+          <t>414259</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>791168</t>
+          <t>623146</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>588829</t>
+          <t>595493</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1452443</t>
+          <t>651844</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>45,31%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1873418</t>
+          <t>450818</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1832660</t>
+          <t>430415</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1945817</t>
+          <t>468945</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>907</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1657567</t>
+          <t>364641</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1190072</t>
+          <t>343918</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1836957</t>
+          <t>385364</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3530986</t>
+          <t>815459</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2869711</t>
+          <t>786761</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3733325</t>
+          <t>843112</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>56,68%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>66,4%</t>
+          <t>54,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>58,61%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2096772</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2096772</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2096772</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2225382</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2225382</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2225382</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4322154</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4322154</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4322154</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50789</t>
+          <t>18898</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39400</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>21912</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>95511</t>
+          <t>37551</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>85983</t>
+          <t>33516</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>102882</t>
+          <t>42118</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>352</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>146299</t>
+          <t>56449</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>131292</t>
+          <t>51164</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>159142</t>
+          <t>61770</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>66,8%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>30,34%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47766</t>
+          <t>63318</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36543</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59155</t>
+          <t>66352</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>80,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>525</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24946</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17575</t>
+          <t>79268</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34474</t>
+          <t>87870</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>65,3%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>902</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>72712</t>
+          <t>147154</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>59869</t>
+          <t>141833</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>87719</t>
+          <t>152439</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>74,87%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>753</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>115114</t>
+          <t>76973</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>102581</t>
+          <t>70415</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>128113</t>
+          <t>83974</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>502</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>184451</t>
+          <t>86067</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>170964</t>
+          <t>79389</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>198112</t>
+          <t>93543</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>299565</t>
+          <t>163040</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>282344</t>
+          <t>153836</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>319031</t>
+          <t>173164</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>242148</t>
+          <t>383865</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>229149</t>
+          <t>376864</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>254681</t>
+          <t>390423</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>170138</t>
+          <t>358910</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>156477</t>
+          <t>351434</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>183625</t>
+          <t>365588</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>82,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>412287</t>
+          <t>742775</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>392821</t>
+          <t>732651</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>429508</t>
+          <t>751979</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>83,02%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63707</t>
+          <t>18079</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55548</t>
+          <t>14621</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73193</t>
+          <t>21831</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>113574</t>
+          <t>26480</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>101425</t>
+          <t>21766</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>123951</t>
+          <t>30441</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>177281</t>
+          <t>44559</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>163576</t>
+          <t>39312</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>192105</t>
+          <t>50321</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>804</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>160903</t>
+          <t>157285</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>151417</t>
+          <t>153533</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>169062</t>
+          <t>160743</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>169557</t>
+          <t>202053</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>159180</t>
+          <t>198092</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>181706</t>
+          <t>206767</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>330460</t>
+          <t>359338</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>315636</t>
+          <t>353576</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>344165</t>
+          <t>364585</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>65,08%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>90,27%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>688</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>229610</t>
+          <t>113950</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>211483</t>
+          <t>105194</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>250013</t>
+          <t>122520</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>876</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>393536</t>
+          <t>150098</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>372813</t>
+          <t>140218</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>414259</t>
+          <t>160214</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>623146</t>
+          <t>264047</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>595493</t>
+          <t>251501</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>651844</t>
+          <t>276611</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>18,28%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>450818</t>
+          <t>604469</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>430415</t>
+          <t>595899</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>468945</t>
+          <t>613225</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>66,26%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,92%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>364641</t>
+          <t>644798</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>343918</t>
+          <t>634682</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>385364</t>
+          <t>654678</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>815459</t>
+          <t>1249268</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>786761</t>
+          <t>1236704</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>843112</t>
+          <t>1261814</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>83,38%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>8504</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
